--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Louis_Melchior_Patrin/Eugène_Louis_Melchior_Patrin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Louis_Melchior_Patrin/Eugène_Louis_Melchior_Patrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Louis_Melchior_Patrin</t>
+          <t>Eugène_Louis_Melchior_Patrin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Louis Melchior Patrin, né le 3 avril 1742 à Lyon, mort le 4 août 1815 à Saint-Vallier (Drôme), est un minéralogiste, un naturaliste et un homme politique de la Révolution française. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Louis_Melchior_Patrin</t>
+          <t>Eugène_Louis_Melchior_Patrin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents le destinent au barreau, mais le jeune Eugène préfère les sciences et s’engage dans leur étude. Après la fin de celle-ci, il voyage en Europe et visite l’Allemagne, l’Autriche, la Hongrie, la Pologne. À Vilnius, il rencontre son compatriote Jean-Emmanuel Gilibert (1741-1814) qui lui donne des lettres de recommandation pour l’Académie de Saint-Pétersbourg. Il y est reçu amicalement notamment par Peter Simon Pallas (1741-1811). Il obtient l’autorisation, accompagné par un officier russe, d’explorer la Sibérie contre la promesse de faire parvenir à l’Académie des échantillons des minéraux et autres objets d’histoire naturelle remarquables qu’il peut récolter. Il voyage durant huit ans et il revient à Saint-Pétersbourg en 1787. Mais il s’aperçoit que Pallas a gardé pour lui les échantillons les plus intéressants qu'il avait envoyés pour sa collection personnelle. Il quitte Saint-Pétersbourg en assez mauvais termes avec le naturaliste russe.
 Il vient s’installer à Paris et offre au Muséum national d'histoire naturelle sa collection de minéraux sibériens représentant une tonne et demi d’échantillons, tous référencés. Mais l’institution refuse faute de place.
-Il fait paraître en 1783 le récit de son expédition sous le titre de Relation d'un voyage aux monts d'Altaïce en Sibérie, fait en 1781 (publié à Saint-Pétersbourg). Connu surtout pour son Histoire naturelle des minéraux, publiée à Paris en cinq volumes en l’an IX (1800-1801). En 1779, il est élu membre correspondant de l’Académie des sciences de Saint-Pétersbourg[1]. Il est également élu le 23 mars 1790 à l'Académie des sciences, belles-lettres et arts de Lyon[2].
-En septembre 1792, Patrin est élu député, le dixième sur quinze, pour le département du Rhône-et-Loire à la Convention nationale[3]. Il siège sur les bancs de la Plaine. Lors du procès de Louis XVI, il vote pour la détention durant la guerre puis le bannissement à la paix. Il est absent à la mise en accusation de Marat[4] et au rétablissement de la Commission des Douze[5]. Ainsi que ses collègues du Rhône-et-Loire, Chasset, Forest, Michet et Vitet, il est décrété d'arrestation sur motion de Mallarmé, soupçonné de pousser la ville de Lyon à la rébellion contre la Convention nationale[6]. Il est admis à s'expliquer devant les Comités de Salut public et de Sûreté générale et est remis en liberté[7].
-Au milieu du mois de nivôse an III (début janvier 1795), Patrin est envoyé en mission dans les départements de l'Ardèche, de la Loire et de la Haute-Loire afin de surveiller les mines et les manufactures d'armes[8]. Il est rappelé au sein de la Convention en germinal (début avril) et remplacé par son collègue Bonet[9]. Il laisse à la fin de sa mission dans la ville de Saint-Étienne une équipe d’ingénieurs compétents et une industrie houillère en expansion qui dure un siècle[2]. Il offre aussi à l’École des mines de Saint-Étienne nouvellement créée sa collection de minéraux et est nommé bibliothécaire.
+Il fait paraître en 1783 le récit de son expédition sous le titre de Relation d'un voyage aux monts d'Altaïce en Sibérie, fait en 1781 (publié à Saint-Pétersbourg). Connu surtout pour son Histoire naturelle des minéraux, publiée à Paris en cinq volumes en l’an IX (1800-1801). En 1779, il est élu membre correspondant de l’Académie des sciences de Saint-Pétersbourg. Il est également élu le 23 mars 1790 à l'Académie des sciences, belles-lettres et arts de Lyon.
+En septembre 1792, Patrin est élu député, le dixième sur quinze, pour le département du Rhône-et-Loire à la Convention nationale. Il siège sur les bancs de la Plaine. Lors du procès de Louis XVI, il vote pour la détention durant la guerre puis le bannissement à la paix. Il est absent à la mise en accusation de Marat et au rétablissement de la Commission des Douze. Ainsi que ses collègues du Rhône-et-Loire, Chasset, Forest, Michet et Vitet, il est décrété d'arrestation sur motion de Mallarmé, soupçonné de pousser la ville de Lyon à la rébellion contre la Convention nationale. Il est admis à s'expliquer devant les Comités de Salut public et de Sûreté générale et est remis en liberté.
+Au milieu du mois de nivôse an III (début janvier 1795), Patrin est envoyé en mission dans les départements de l'Ardèche, de la Loire et de la Haute-Loire afin de surveiller les mines et les manufactures d'armes. Il est rappelé au sein de la Convention en germinal (début avril) et remplacé par son collègue Bonet. Il laisse à la fin de sa mission dans la ville de Saint-Étienne une équipe d’ingénieurs compétents et une industrie houillère en expansion qui dure un siècle. Il offre aussi à l’École des mines de Saint-Étienne nouvellement créée sa collection de minéraux et est nommé bibliothécaire.
 On lui doit d'avoir référencé l'aurichalcite en deux espèces qu'il croyait différentes : "Calamine verdâtre" et  "Mine de Laiton".
-Antoine-Laurent de Jussieu, lui rend hommage en nommant un genre de Valérianacée, Patrinia, une plante présente notamment en Sibérie[2]. 
+Antoine-Laurent de Jussieu, lui rend hommage en nommant un genre de Valérianacée, Patrinia, une plante présente notamment en Sibérie. 
 </t>
         </is>
       </c>
